--- a/site/10_Interview/Networking/protocol.xlsx
+++ b/site/10_Interview/Networking/protocol.xlsx
@@ -4,39 +4,175 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13717" windowHeight="14130"/>
+    <workbookView windowWidth="28117" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Pys Lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dlk Lr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntw Lr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsp Lr </t>
-  </si>
-  <si>
-    <t>Ssn Lr</t>
-  </si>
-  <si>
-    <t>Pst Lr</t>
-  </si>
-  <si>
-    <t>Apl Lr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+  <si>
+    <t>1. Pys Lr</t>
+  </si>
+  <si>
+    <t>2. Dlk Lr</t>
+  </si>
+  <si>
+    <t>3. Ntw Lr</t>
+  </si>
+  <si>
+    <t>4. Tsp Lr</t>
+  </si>
+  <si>
+    <t>5. Ssn Lr</t>
+  </si>
+  <si>
+    <t>6. Pst Lr</t>
+  </si>
+  <si>
+    <t>7. Apl Lr</t>
+  </si>
+  <si>
+    <t>Ethernet (IEEE 802.3)</t>
+  </si>
+  <si>
+    <t>IPv4 (Internet Protocol version 4)</t>
+  </si>
+  <si>
+    <t>TCP (Transmission Control Protocol)</t>
+  </si>
+  <si>
+    <t>TLS (Transport Layer Security)</t>
+  </si>
+  <si>
+    <t>MIME (Multipurpose Internet Mail Extensions)</t>
+  </si>
+  <si>
+    <t>HTTP (Hypertext Transfer Protocol)</t>
+  </si>
+  <si>
+    <t>Wi-Fi (IEEE 802.11)</t>
+  </si>
+  <si>
+    <t>IPv6 (Internet Protocol version 6)</t>
+  </si>
+  <si>
+    <t>UDP (User Datagram Protocol)</t>
+  </si>
+  <si>
+    <t>SSL (Secure Sockets Layer)</t>
+  </si>
+  <si>
+    <t>XDR (External Data Representation)</t>
+  </si>
+  <si>
+    <t>HTTPS (Hypertext Transfer Protocol Secure)</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>PPP (Point-to-Point Protocol)</t>
+  </si>
+  <si>
+    <t>ICMP (Internet Control Message Protocol)</t>
+  </si>
+  <si>
+    <t>SCTP (Stream Control Transmission Protocol)</t>
+  </si>
+  <si>
+    <t>SSH (Secure Shell)</t>
+  </si>
+  <si>
+    <t>ASN.1 (Abstract Syntax Notation One)</t>
+  </si>
+  <si>
+    <t>FTP (File Transfer Protocol)</t>
+  </si>
+  <si>
+    <t>DSL (Digital Subscriber Line)</t>
+  </si>
+  <si>
+    <t>HDLC (High-Level Data Link Control)</t>
+  </si>
+  <si>
+    <t>IGMP (Internet Group Management Protocol)</t>
+  </si>
+  <si>
+    <t>DCCP (Datagram Congestion Control Protocol)</t>
+  </si>
+  <si>
+    <t>L2TP (Layer 2 Tunneling Protocol)</t>
+  </si>
+  <si>
+    <t>SSL/TLS (Secure Sockets Layer / Transport Layer Security)</t>
+  </si>
+  <si>
+    <t>TFTP (Trivial File Transfer Protocol)</t>
+  </si>
+  <si>
+    <t>USB (Universal Serial Bus)</t>
+  </si>
+  <si>
+    <t>Frame Relay</t>
+  </si>
+  <si>
+    <t>OSPF (Open Shortest Path First)</t>
+  </si>
+  <si>
+    <t>PPTP (Point-to-Point Tunneling Protocol)</t>
+  </si>
+  <si>
+    <t>JSON (JavaScript Object Notation)</t>
+  </si>
+  <si>
+    <t>SMTP (Simple Mail Transfer Protocol)</t>
+  </si>
+  <si>
+    <t>RS-232</t>
+  </si>
+  <si>
+    <t>ATM (Asynchronous Transfer Mode)</t>
+  </si>
+  <si>
+    <t>RIP (Routing Information Protocol)</t>
+  </si>
+  <si>
+    <t>XML (eXtensible Markup Language)</t>
+  </si>
+  <si>
+    <t>POP3 (Post Office Protocol version 3)</t>
+  </si>
+  <si>
+    <t>BGP (Border Gateway Protocol)</t>
+  </si>
+  <si>
+    <t>IMAP (Internet Message Access Protocol)</t>
+  </si>
+  <si>
+    <t>DNS (Domain Name System)</t>
+  </si>
+  <si>
+    <t>SNMP (Simple Network Management Protocol)</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>DHCP (Dynamic Host Configuration Protocol)</t>
+  </si>
+  <si>
+    <t>LDAP (Lightweight Directory Access Protocol)</t>
+  </si>
+  <si>
+    <t>SIP (Session Initiation Protocol)</t>
+  </si>
+  <si>
+    <t>XMPP (Extensible Messaging and Presence Protocol)</t>
   </si>
 </sst>
 </file>
@@ -46,8 +182,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,6 +194,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -514,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,10 +660,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,7 +672,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,13 +681,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,8 +796,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,35 +1157,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="24.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="31.3451327433628" customWidth="1"/>
+    <col min="3" max="3" width="39.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="40.4247787610619" customWidth="1"/>
+    <col min="5" max="5" width="34.5309734513274" customWidth="1"/>
+    <col min="6" max="7" width="40.4247787610619" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" ht="16.6" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="33.25" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="16.6" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="16.6" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="33.25" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="16.6" customHeight="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="16.6" customHeight="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="16.6" customHeight="1" spans="3:7">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="16.6" customHeight="1" spans="7:7">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="33.25" customHeight="1" spans="7:7">
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="16.6" customHeight="1" spans="7:7">
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="16.6" customHeight="1" spans="7:7">
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="16.6" customHeight="1" spans="7:7">
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="16.6" customHeight="1" spans="7:7">
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="33.25" customHeight="1" spans="7:7">
+      <c r="G15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1047,38 +1373,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>